--- a/Tuần 4 Greedy Approach _ Nhóm báo cáo/HomeWork/Score Homework.xlsx
+++ b/Tuần 4 Greedy Approach _ Nhóm báo cáo/HomeWork/Score Homework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS\Documents\GitHub\CS112.L21.KHCL\Tuần 4 Greedy Approach _ Nhóm báo cáo\HomeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AEBAAB-C063-457E-A6B6-F3FAF60E5A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BC17D1-1BCD-4136-8C93-7D2E1F6AE1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A23CB7D-6C2D-4A3F-A478-903698DECFDF}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
-    <t>Min testcase</t>
-  </si>
-  <si>
     <t>Gr</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>&gt; 60s</t>
+  </si>
+  <si>
+    <t>Small testcase</t>
   </si>
 </sst>
 </file>
@@ -407,6 +407,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,12 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +748,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,56 +761,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>9</v>
+      <c r="D3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -818,19 +818,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -838,19 +838,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -858,22 +858,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -881,22 +881,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -904,19 +904,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,19 +924,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -944,19 +944,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -964,39 +964,39 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
